--- a/little_test.xlsx
+++ b/little_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\IDEA_projects\Software_test\just_for_exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFA78FD-5839-41B8-8AD5-CB4F6BF5C869}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE29F76F-05BF-497E-9F0D-83DEF23A91B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F908FA27-482C-4B29-861E-C1A259CAD844}"/>
   </bookViews>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A6100A-E9B6-4F82-B5A6-15F1201DD251}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -419,6 +419,39 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/little_test.xlsx
+++ b/little_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\IDEA_projects\Software_test\just_for_exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE29F76F-05BF-497E-9F0D-83DEF23A91B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C237888B-AE0D-4A71-87A1-8E48DE547020}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F908FA27-482C-4B29-861E-C1A259CAD844}"/>
+    <workbookView xWindow="2124" yWindow="2124" windowWidth="17280" windowHeight="8964" xr2:uid="{F908FA27-482C-4B29-861E-C1A259CAD844}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,57 +399,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
